--- a/uploads/inquiries/Inquiry_3.xlsx
+++ b/uploads/inquiries/Inquiry_3.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Inquiry_1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Inquiry_3" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="uN9/yVnKgVMpYoxrL1U5etjymuI0NHHW5o+rJVLnpzk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Zz0XlZoBADscew1OLuYsRdb8+5nlLKd9PwjGb3OmfKg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product Name</t>
   </si>
@@ -27,19 +27,28 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Sugar 5kg</t>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>PRIMA KOTTU MEE - 80GRM</t>
   </si>
   <si>
     <t>Available</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>EDAM CHEESE1 KG  LILY CHEESE</t>
+  </si>
+  <si>
+    <t>PIZZA BASE-5 PCS</t>
+  </si>
+  <si>
+    <t>FISH SAUCE-600 ML</t>
   </si>
 </sst>
 </file>
@@ -304,13 +313,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.14"/>
+    <col customWidth="1" min="1" max="1" width="29.71"/>
     <col customWidth="1" min="2" max="2" width="9.14"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="4" width="9.14"/>
-    <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="6.71"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="16.0"/>
+    <col customWidth="1" min="4" max="4" width="18.57"/>
+    <col customWidth="1" min="5" max="5" width="10.14"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -329,27 +337,72 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>20.0</v>
       </c>
       <c r="C2" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4000.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>130.0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1800.0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>800.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
